--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORK\ASSIGNMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF274BFF-5E1D-4848-8C13-F7A7F5861563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644A1478-FDDD-40B6-9AE6-137DE4EEE0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66620D42-F255-4179-BE44-7567C4D40039}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{66620D42-F255-4179-BE44-7567C4D40039}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignment-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignment-2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test scenario of Instagram" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Scenario of chatbox" sheetId="4" r:id="rId4"/>
+    <sheet name="test case of fabebook" sheetId="5" r:id="rId5"/>
+    <sheet name="Test Scenario of rename folder" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="283">
   <si>
     <t>Assignment-1</t>
   </si>
@@ -351,13 +356,544 @@
   </si>
   <si>
     <t>Draw usecase on Online shopping product using payment gateway.</t>
+  </si>
+  <si>
+    <t>What is software testing?</t>
+  </si>
+  <si>
+    <t>software testing is a process used to identify the correctness, completeness and quality of developed computer software.</t>
+  </si>
+  <si>
+    <t>Assignment-2</t>
+  </si>
+  <si>
+    <t>Verify that user can set profile pic uploaded from his or her computer.</t>
+  </si>
+  <si>
+    <t>Verify that user can set profile pic uploaded from mobile.</t>
+  </si>
+  <si>
+    <t>Verify that user can set profile from webcam or mobile camera.</t>
+  </si>
+  <si>
+    <t>Verify that user can set cover pic uploaded from his or her computer.</t>
+  </si>
+  <si>
+    <t>Verify that user can set cover pic uploaded from mobile.</t>
+  </si>
+  <si>
+    <t>Verify that user can set cover from webcam or mobile camera.</t>
+  </si>
+  <si>
+    <t>Verify that uploading image of unsupported type should lead to error message.</t>
+  </si>
+  <si>
+    <t>Verify that uploading image of size exceeding maximum allowed size should lead to error message.</t>
+  </si>
+  <si>
+    <t>Verify that uploading image of size less than the allowed minimum size should lead to error message.</t>
+  </si>
+  <si>
+    <t>Verify that uploading image of larger dimension than permitted should lead to error message.</t>
+  </si>
+  <si>
+    <t>Verify that uploading image of smaller dimension than permitted should lead to error message.</t>
+  </si>
+  <si>
+    <t>Verify that change in profile pic should get reflected in each post/comment of the user’s timeline.</t>
+  </si>
+  <si>
+    <t>Verify that user can add/edit their account information displayed to other users.</t>
+  </si>
+  <si>
+    <t>Verify that users can post text in their timeline and the same gets displyed to their friends.</t>
+  </si>
+  <si>
+    <t>Verify that users can post images in their timeline and the same gets displyed to their friends.</t>
+  </si>
+  <si>
+    <t>Verify that users can post links with or without preview in their timeline and the same gets displayed to their friends.</t>
+  </si>
+  <si>
+    <t>Verify that user can tag friends in their posts.</t>
+  </si>
+  <si>
+    <t>Verify that users can see the all the post in their timeline.</t>
+  </si>
+  <si>
+    <t>Verify that users can see comments, likes and reactions in the posts present in their timeline.</t>
+  </si>
+  <si>
+    <t>Verify that users can post comments, like and react to the posts present in their timeline.</t>
+  </si>
+  <si>
+    <t>Verify that uer can set profile pic from photos present on his account’s photo section.</t>
+  </si>
+  <si>
+    <t>verify that user set their account such as private or public and business account.</t>
+  </si>
+  <si>
+    <t>verify that user promote bussiness is valid or not.</t>
+  </si>
+  <si>
+    <t>verify that user only get massge when user accept chat request.</t>
+  </si>
+  <si>
+    <t>verify that user can set chat theme in chat box</t>
+  </si>
+  <si>
+    <t>verify that user can mute the notification</t>
+  </si>
+  <si>
+    <t>verify that user make video and audio call with their friends.</t>
+  </si>
+  <si>
+    <t>verify that user can not share private account details with others.</t>
+  </si>
+  <si>
+    <t>verify that user set authentication for security.</t>
+  </si>
+  <si>
+    <t>verify that user if don’t want show their activities to other.</t>
+  </si>
+  <si>
+    <t>Check user can able to write a message on the message field till a limit.</t>
+  </si>
+  <si>
+    <t>Check whether users can able to delete the existing message or not.</t>
+  </si>
+  <si>
+    <t>Check the users can able to forward the existing message to others in a group as well as individuals.</t>
+  </si>
+  <si>
+    <t>Check whether the user can able to send a message without a mobile number or not. And as well as the correct error message is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Check by trying to send the message to an invalid number </t>
+  </si>
+  <si>
+    <t>Check by trying to send a message to our mobile and see the result.</t>
+  </si>
+  <si>
+    <t>Check whether you are able to send to any mobile which is temporarily disconnected.</t>
+  </si>
+  <si>
+    <t>Check whether you can send to landline no, toll-free no.</t>
+  </si>
+  <si>
+    <t>Click on send button, does it send the message?</t>
+  </si>
+  <si>
+    <t>Check all the notifications like receiving messages, sending messages, deleting messages, etc.</t>
+  </si>
+  <si>
+    <t>Check if the spelling for the error message is correct or not.</t>
+  </si>
+  <si>
+    <t>Check the grammar for the error messages is correct.</t>
+  </si>
+  <si>
+    <t>Check the error message for blank input is shown.</t>
+  </si>
+  <si>
+    <t>Check an error message for uploading an empty file is shown or not.</t>
+  </si>
+  <si>
+    <t>Check an error message should be shown for the maximum or upper limit.</t>
+  </si>
+  <si>
+    <t>Check if the error message shown for the files is not supportable by the tool.</t>
+  </si>
+  <si>
+    <t>Check if an error message is shown for blank input or limit after it the user should be able to click and interact with the software.</t>
+  </si>
+  <si>
+    <t>Check the confirmation message on email registration.</t>
+  </si>
+  <si>
+    <t>Check an error message should be shown in case the user adds minimum words or content than the allowed limit.</t>
+  </si>
+  <si>
+    <t>Check the error message should be shown for the invalid URL.</t>
+  </si>
+  <si>
+    <t>Check proper error message should be shown for invalid phNo.</t>
+  </si>
+  <si>
+    <t>Test scenario = chatbox</t>
+  </si>
+  <si>
+    <t>Test scenario = instagram</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Version</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Windows 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome </t>
+  </si>
+  <si>
+    <t>Test Scenario Id</t>
+  </si>
+  <si>
+    <t>Test scenario name</t>
+  </si>
+  <si>
+    <t>Test case id</t>
+  </si>
+  <si>
+    <t>Testcase name</t>
+  </si>
+  <si>
+    <t>Pre condition</t>
+  </si>
+  <si>
+    <t>Test step</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Pass / Fail</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Fb_Sc_1</t>
+  </si>
+  <si>
+    <t>verify registration functanility</t>
+  </si>
+  <si>
+    <t>Fb_tc_1.1</t>
+  </si>
+  <si>
+    <t>Fb_tc_1.2</t>
+  </si>
+  <si>
+    <t>Fb_tc_1.3</t>
+  </si>
+  <si>
+    <t>Fb_tc_1.4</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>should not blank</t>
+  </si>
+  <si>
+    <t>Number should not allowed</t>
+  </si>
+  <si>
+    <t>Special char. Should not allowed</t>
+  </si>
+  <si>
+    <t>only Char. Should allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration page should be open </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>click on field move to next field</t>
+  </si>
+  <si>
+    <t>enter data move to next field</t>
+  </si>
+  <si>
+    <t>emter data move to next field</t>
+  </si>
+  <si>
+    <t>error message</t>
+  </si>
+  <si>
+    <t>should accepted</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Fb_tc_2.1</t>
+  </si>
+  <si>
+    <t>Fb_tc_2.2</t>
+  </si>
+  <si>
+    <t>Fb_tc_2.3</t>
+  </si>
+  <si>
+    <t>Fb_tc_2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass </t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>Fb_tc_3.1</t>
+  </si>
+  <si>
+    <t>Fb_tc_3.2</t>
+  </si>
+  <si>
+    <t>Fb_tc_3.3</t>
+  </si>
+  <si>
+    <t>Fb_tc_3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should not blank </t>
+  </si>
+  <si>
+    <t>numbers only allowed</t>
+  </si>
+  <si>
+    <t>special char should not allowed</t>
+  </si>
+  <si>
+    <t>character not allowed</t>
+  </si>
+  <si>
+    <t>first name should be fill in box</t>
+  </si>
+  <si>
+    <t>first and last name should fill</t>
+  </si>
+  <si>
+    <t>#@$</t>
+  </si>
+  <si>
+    <t>priyanka</t>
+  </si>
+  <si>
+    <t>data accepted</t>
+  </si>
+  <si>
+    <t>as per expected</t>
+  </si>
+  <si>
+    <t>dhaduk</t>
+  </si>
+  <si>
+    <t>7016@123</t>
+  </si>
+  <si>
+    <t>70163priyanka</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Fb_tc_4.1</t>
+  </si>
+  <si>
+    <t>Fb_tc_4.2</t>
+  </si>
+  <si>
+    <t>Fb_tc_4.3</t>
+  </si>
+  <si>
+    <t>Fb_tc_4.4</t>
+  </si>
+  <si>
+    <t>Fb_tc_4.5</t>
+  </si>
+  <si>
+    <t>email should in proper format</t>
+  </si>
+  <si>
+    <t>enter email without @ symbol</t>
+  </si>
+  <si>
+    <t>enter email without . symbol</t>
+  </si>
+  <si>
+    <t>enter email without com word</t>
+  </si>
+  <si>
+    <t>first, last name and phNo should fill</t>
+  </si>
+  <si>
+    <t>dhadukpriyanka2@gmail.com</t>
+  </si>
+  <si>
+    <t>dhadukpriyanka2gmail.com</t>
+  </si>
+  <si>
+    <t>dhadukpriyanka2@gmailcom</t>
+  </si>
+  <si>
+    <t>dhadukpriyanka2@gmail</t>
+  </si>
+  <si>
+    <t>Fb_tc_4.6</t>
+  </si>
+  <si>
+    <t>enter email without gmail word</t>
+  </si>
+  <si>
+    <t>dhadukpriyanka2@.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Fb_tc_5.1</t>
+  </si>
+  <si>
+    <t>Fb_tc_5.2</t>
+  </si>
+  <si>
+    <t>Fb_tc_5.3</t>
+  </si>
+  <si>
+    <t>Fb_tc_5.4</t>
+  </si>
+  <si>
+    <t>Fb_tc_5.5</t>
+  </si>
+  <si>
+    <t>Fb_tc_5.6</t>
+  </si>
+  <si>
+    <t>Fb_tc_5.7</t>
+  </si>
+  <si>
+    <t>Fb_tc_5.8</t>
+  </si>
+  <si>
+    <t>enter password without upper case</t>
+  </si>
+  <si>
+    <t>enter password without lower case</t>
+  </si>
+  <si>
+    <t>enter password without special char.</t>
+  </si>
+  <si>
+    <t>enter password with all requirement</t>
+  </si>
+  <si>
+    <t>enter password less than 5 char</t>
+  </si>
+  <si>
+    <t>enter password more than 15 char</t>
+  </si>
+  <si>
+    <t>enter password without numeric</t>
+  </si>
+  <si>
+    <t>first,last name,phNo, Email should fill</t>
+  </si>
+  <si>
+    <t>priyanka@123</t>
+  </si>
+  <si>
+    <t>PRIYANKA@123</t>
+  </si>
+  <si>
+    <t>priyanka123</t>
+  </si>
+  <si>
+    <t>p@12</t>
+  </si>
+  <si>
+    <t>priyanka@123456789</t>
+  </si>
+  <si>
+    <t>priyanka@dhaduk</t>
+  </si>
+  <si>
+    <t>Priyanka@123</t>
+  </si>
+  <si>
+    <t>Test scenario = Folder Renaming</t>
+  </si>
+  <si>
+    <t>One word name (movies, documents, files, etc.) should with fine.</t>
+  </si>
+  <si>
+    <t>Verify for all special characters from keyboards should not work.</t>
+  </si>
+  <si>
+    <t>Validate handling of folder creation after 256 characters on windows should not be allowed.</t>
+  </si>
+  <si>
+    <t>After creating the folder verify that it should not be open with a single mouse click.</t>
+  </si>
+  <si>
+    <t>Ensure that folder should always be open on double click</t>
+  </si>
+  <si>
+    <t>Verify that Operating System should not allow the user to create a folder name with any of the following characters \ /:”*?&lt;&gt;|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Space-separated names should be allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Verify that the folder can be created with a minimum of 1 character and a maximum of 260 characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Verify that the validation message pop-up on giving the existing folder name to the newly created folder</t>
+  </si>
+  <si>
+    <t>Prohibited characters should show proper errors (using of? * etc.).</t>
+  </si>
+  <si>
+    <t>Naming a folder using the same name as one already present in the current folder should show a proper error.</t>
+  </si>
+  <si>
+    <t>Multiple language should allowed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,16 +930,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252830"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -411,11 +987,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,7 +1016,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -436,8 +1027,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -957,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4058D54B-AD74-4C79-B6D1-6D0C027E5ED1}">
   <dimension ref="A1:B219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,11 +1580,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -997,11 +1605,11 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1028,11 +1636,11 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1047,11 +1655,11 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1072,11 +1680,11 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1121,11 +1729,11 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+    <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>6</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1146,11 +1754,11 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+    <row r="31" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
         <v>7</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1165,11 +1773,11 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
         <v>8</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1184,11 +1792,11 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
         <v>9</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1203,11 +1811,11 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
         <v>10</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1228,11 +1836,11 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+    <row r="44" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
         <v>11</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1247,11 +1855,11 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+    <row r="47" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
         <v>12</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1266,11 +1874,11 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+    <row r="50" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
         <v>13</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1303,11 +1911,11 @@
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+    <row r="56" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
         <v>14</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1345,7 +1953,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="9"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
@@ -1401,11 +2009,11 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="6">
+    <row r="86" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
         <v>15</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1456,11 +2064,11 @@
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
     </row>
-    <row r="116" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="6">
+    <row r="116" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
         <v>16</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1505,11 +2113,11 @@
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="6">
+    <row r="124" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="5">
         <v>17</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1546,11 +2154,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="7">
+    <row r="132" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="6">
         <v>18</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1582,11 +2190,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="7">
+    <row r="139" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="6">
         <v>19</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1613,11 +2221,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="7">
+    <row r="145" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="6">
         <v>20</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1629,11 +2237,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="7">
+    <row r="148" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="6">
         <v>21</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1660,11 +2268,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="154" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="7">
+    <row r="154" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="6">
         <v>22</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1677,40 +2285,37 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="4" t="s">
+      <c r="B156" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="4" t="s">
+      <c r="B157" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="4" t="s">
+      <c r="B158" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B160" s="4" t="s">
+      <c r="B160" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="4"/>
-    </row>
-    <row r="163" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="8" t="s">
+    <row r="163" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1720,7 +2325,7 @@
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1730,7 +2335,7 @@
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1769,8 +2374,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="176" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="7" t="s">
+    <row r="176" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1809,11 +2414,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="7">
+    <row r="185" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="6">
         <v>23</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1822,11 +2427,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="7">
+    <row r="218" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="6">
         <v>24</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1840,4 +2445,1448 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525DD34-5544-41A5-AEDD-E1A6772874DD}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="156.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E34C3D7-33EA-45CE-97D7-14E684E7D346}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="148.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6725247D-3E65-4B81-B83D-6B30FAE07A8C}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="148.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0FEA5E-41FA-4CB1-8876-9EAEDBD0306C}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="28.08984375" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" customWidth="1"/>
+    <col min="10" max="10" width="16.90625" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" t="s">
+        <v>224</v>
+      </c>
+      <c r="J17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" t="s">
+        <v>224</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23">
+        <v>7016335273</v>
+      </c>
+      <c r="H23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" t="s">
+        <v>265</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H38" t="s">
+        <v>201</v>
+      </c>
+      <c r="I38" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" t="s">
+        <v>197</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{0F1F87A1-74D2-448B-8325-9B36415F82A2}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{CAB0D08B-EF79-40E9-9AFC-1E3422428C32}"/>
+    <hyperlink ref="G24" r:id="rId3" xr:uid="{3313EF54-73BF-4D01-909B-E08E3BE28518}"/>
+    <hyperlink ref="G28" r:id="rId4" xr:uid="{0AE70FE4-AFDA-4458-84C6-31CA0C46B06B}"/>
+    <hyperlink ref="G29" r:id="rId5" display="dhadukpriyanka2@gmail.com" xr:uid="{CB368812-EE0F-4E84-87F6-1AE3C025D306}"/>
+    <hyperlink ref="G30" r:id="rId6" xr:uid="{A244B577-72C8-4AB4-BFD4-D3420309CF12}"/>
+    <hyperlink ref="G31" r:id="rId7" xr:uid="{468D7B4D-C10E-491F-BFF8-EE7471E0ED8B}"/>
+    <hyperlink ref="G32" r:id="rId8" xr:uid="{E7C78CC3-EEBB-4BE2-ADB6-BF2B0F947E4E}"/>
+    <hyperlink ref="G35" r:id="rId9" xr:uid="{94936A96-D78A-4AA6-9C06-9EFECA367C51}"/>
+    <hyperlink ref="G36" r:id="rId10" xr:uid="{9E9FCC5A-8B04-4C65-9F56-5FFDA0BEBE82}"/>
+    <hyperlink ref="G38" r:id="rId11" xr:uid="{77E4E7D2-1B06-4D5E-A5F1-18F8AFFC1CCD}"/>
+    <hyperlink ref="G39" r:id="rId12" xr:uid="{EF8BBEDB-D8D3-4969-8BB0-E58788FD0667}"/>
+    <hyperlink ref="G40" r:id="rId13" xr:uid="{0BD85356-0703-4BCD-BC51-C84646F95218}"/>
+    <hyperlink ref="G41" r:id="rId14" xr:uid="{D4DD5B2F-012F-45F6-9571-41F8C635235C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F0669D-5D6D-4B6B-8AD0-5B5CC51B99DC}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="149.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORK\ASSIGNMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644A1478-FDDD-40B6-9AE6-137DE4EEE0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9207DD-46FE-4AA9-AEE3-343370A32D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{66620D42-F255-4179-BE44-7567C4D40039}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{66620D42-F255-4179-BE44-7567C4D40039}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment-1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="390">
   <si>
     <t>Assignment-1</t>
   </si>
@@ -887,13 +887,453 @@
   </si>
   <si>
     <t>Multiple language should allowed.</t>
+  </si>
+  <si>
+    <t>What is Exploratory Testing?</t>
+  </si>
+  <si>
+    <t>Exploratory testing is an approach to software testing that is concisely described as simultaneous learning, test design and text execution.</t>
+  </si>
+  <si>
+    <t>What is traceability matrix?</t>
+  </si>
+  <si>
+    <t>A requirements tracebility matrix is a document that demonstrates the relationship between requirements and other artifacts. Its used to prove that requirements have been filfilled
+ and it typically documents requirements, tests, test result and issues.</t>
+  </si>
+  <si>
+    <t>What is Boundary value testing?</t>
+  </si>
+  <si>
+    <t>Boundary value analysis is a methodology for designing test cases that concentrates software testing effort on cases near the limits of valid ranges.</t>
+  </si>
+  <si>
+    <t>What is Equivalence partitioning testing?</t>
+  </si>
+  <si>
+    <t>What is Integration testing?</t>
+  </si>
+  <si>
+    <t>Testing performed to xpose defects in the interface and in the ineractions between integrated components or system.
+It is level of the software testing process where individual unit are combined tested as a group.</t>
+  </si>
+  <si>
+    <t>What determines the level of risk?</t>
+  </si>
+  <si>
+    <t>Equivalence partitioning  is a software testing technique that divides the input data of a software unit into partitions of equivalent data from which test cases can be derived. 
+in principle, test cases are designed to cover each partition at least once.</t>
+  </si>
+  <si>
+    <t>Risk-based testing (RBT) is a type of software testing that functions as an organizational principle used to prioritize the tests of features and functions in software, 
+based on the risk of failure, the function of their importance and likelihood or impact of failure.</t>
+  </si>
+  <si>
+    <t>What is Alpha testing?</t>
+  </si>
+  <si>
+    <t>Alpha testing is the initial phase of validating whether a new product will perform as expected. Alpha tests are carried out early in the development process by internal staff 
+and are followed up with beta tests, in which a sampling of the intended audience actually tries the product out.</t>
+  </si>
+  <si>
+    <t>What is beta testing?</t>
+  </si>
+  <si>
+    <t>In software development, a beta test is the second phase of software testing in which a sampling of the intended audience tries the product out. Beta is the second letter of 
+the Greek alphabet. Originally, the term alpha test meant the first phase of testing in a software development process.</t>
+  </si>
+  <si>
+    <t>What is component testing?</t>
+  </si>
+  <si>
+    <t>Component testing, also known as program or module testing, is done after unit testing. In this type of testing those test objects can be tested independently as a component 
+without integrating with other components e.g. modules, classes, objects, and programs. This testing is done by the development team.</t>
+  </si>
+  <si>
+    <t>What is functional system testing?</t>
+  </si>
+  <si>
+    <t>Functional testing is a type of testing that seeks to establish whether each application feature works as per the software requirements.
+Each function is compared to the corresponding requirement to ascertain whether its output is consistent with the end user's expectations.</t>
+  </si>
+  <si>
+    <t>What is Non-Functional Testing?</t>
+  </si>
+  <si>
+    <t>Non-Functional Testing is defined as a type of Software testing to check non-functional aspects (performance, usability, reliability, etc) of a software application.</t>
+  </si>
+  <si>
+    <t>What is GUI Testing?</t>
+  </si>
+  <si>
+    <t>Graphical User Interface Testing (GUI) Testing is the process for ensuring proper functionality of the graphical user interface (GUI) for a specific application.
+GUI testing generally evaluates a design of elements such as layout, colors and also fonts, font sizes, labels, text boxes, text formatting, captions, buttons, lists, icons, links, and content. 
+GUI testing processes may be either manual or automatic and are often performed by third-party companies, rather than developers or end users. </t>
+  </si>
+  <si>
+    <t>Adhoc testing is a type of software testing which is performed informally and randomly after the formal testing is completed to find out any loophole in the system. 
+For this reason, it is also known as Random testing or Monkey testing. Adhoc testing is not performed in an structured way so it is not based on any methodological approach.
+That’s why Adhoc testing is a type of Unstructured Software Testing. </t>
+  </si>
+  <si>
+    <t>What is Adhoc testing?</t>
+  </si>
+  <si>
+    <t>What is white box testing and list the types of white box testing?</t>
+  </si>
+  <si>
+    <t>White Box Testing is a testing technique in which software’s internal structure, design, and coding are tested to verify input-output flow and improve design, usability, and security. 
+Clear box testing
+Open box testing
+Transparent box testing
+Code-based testing
+Glass box testing.</t>
+  </si>
+  <si>
+    <t>What is black box testing? What are the different black box testing techniques?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black box testing is a type of software testing in which the functionality of the software is not known. The testing is done without the internal knowledge of the products. 
+Functional Testing 
+Regression Testing
+Nonfunctional Testing </t>
+  </si>
+  <si>
+    <t>Mention what are the categories of defects?</t>
+  </si>
+  <si>
+    <t>Arithmetic Defects.</t>
+  </si>
+  <si>
+    <t>Logical Defects.</t>
+  </si>
+  <si>
+    <t>Syntax Defects.</t>
+  </si>
+  <si>
+    <t>Multithreading Defects.</t>
+  </si>
+  <si>
+    <t>Interface Defects.</t>
+  </si>
+  <si>
+    <t>Performance Defects.</t>
+  </si>
+  <si>
+    <t>Mention what bigbang testing is?</t>
+  </si>
+  <si>
+    <t>Big Bang Integration Testing is an integration testing strategy wherein all units are linked at once, resulting in a complete system. When this type of testing strategy is adopted, 
+it is difficult to isolate any errors found, because attention is not paid to verifying the interfaces across individual units.</t>
+  </si>
+  <si>
+    <t>Exit criterion is used to determine whether a given test activity has been completed or NOT. Exit criteria can be defined for all of the test activities right from planning, 
+specification and execution. Exit criterion should be part of test plan and decided in the planning stage.</t>
+  </si>
+  <si>
+    <t>What is the purpose of exit criteria?</t>
+  </si>
+  <si>
+    <t>When should "Regression Testing" be performed?</t>
+  </si>
+  <si>
+    <t>Regression testing can be performed on a new build when there is a significant change in the original functionality. It ensures that the code still works even when the changes
+ are occurring. Regression means Re-test those parts of the application, which are unchanged.</t>
+  </si>
+  <si>
+    <t>What is 7 key principles? Explain in detail?</t>
+  </si>
+  <si>
+    <t>1. Testing shows presence of defects</t>
+  </si>
+  <si>
+    <t>2. Exhaustive testing is not possible</t>
+  </si>
+  <si>
+    <t>3. Early testing</t>
+  </si>
+  <si>
+    <t>4. Defect clustering</t>
+  </si>
+  <si>
+    <t>5. Pesticide paradox</t>
+  </si>
+  <si>
+    <t>6. Testing is context dependent</t>
+  </si>
+  <si>
+    <t>7. Absence of errors fallacy</t>
+  </si>
+  <si>
+    <t>Difference between QA v/s QC v/s Tester</t>
+  </si>
+  <si>
+    <t>1. Quality Assurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           activities which ensure that implementation of process, procedures and standard in context to verification of developed software and intended requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              - process oriented activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Quality control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              - preventive activities</t>
+  </si>
+  <si>
+    <t>3. Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            activities which ensure the verification of developed software with respect to documented(or not in some cases) requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                -product oriented activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                - it is a corrective process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          activities which ensure the identification of bugs / error / defects in the software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   - product oriented activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   - it is  a preventive process corrective</t>
+  </si>
+  <si>
+    <t>Difference between Smoke and Sanity?</t>
+  </si>
+  <si>
+    <t>Smoke testing is performed after software build to ascertain that the critical functionalities of the program id working fine.</t>
+  </si>
+  <si>
+    <t>it is executed "before" any detailed functional or regression tests are executed on the software build</t>
+  </si>
+  <si>
+    <t>SMOKE TESTING</t>
+  </si>
+  <si>
+    <t>SANITY TESTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After receving a software build, with minor changes in code or functionality sanity testing is performed to ascertain that the bugs have been fixed and no further issues are </t>
+  </si>
+  <si>
+    <t>introduced due to these changes.</t>
+  </si>
+  <si>
+    <t>Difference between verification and Validation</t>
+  </si>
+  <si>
+    <t>VERIFICATION</t>
+  </si>
+  <si>
+    <t>VALIDATION</t>
+  </si>
+  <si>
+    <t>the process of evaluating software during or that end of the development process to determine wheather it satisfies specified business requirements.</t>
+  </si>
+  <si>
+    <t>the process of evaluating work product (not actual final product) of the development phase to determine whether they meet the secrified requirement for that phase.</t>
+  </si>
+  <si>
+    <t>Explain types of Performance testing.</t>
+  </si>
+  <si>
+    <t>What is Error, Defect, Bug and failure?</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>A human action that product on incorrect result can manifest as error.</t>
+  </si>
+  <si>
+    <t>DEFECTS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Capacity Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tests how many users the system can handle before performance dips below acceptable levels. By testing a software’s capacity it helps developers anticipate issues in terms of scalability and future user-base growth. </t>
+    </r>
+  </si>
+  <si>
+    <t>Load Testing: 
+Confirms that the system can handle the required number of users and still operate at a high level of performance. This ensures that there is no day to day issues in performance. </t>
+  </si>
+  <si>
+    <t>Volume Testing: 
+Checks that the software can handle and process a large amount of data at once without breaking, slowing down, or losing any information.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stress Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intentionally tries to break the software by simulating a number of users that greatly exceeds expectations. The launch day of a new iPhone and the sudden spike in user traffic on the Apple website is a good example of a stress test in real world.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Soak Testing: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Simulates high traffic for an extended period of time. Checks the software’s ability to tolerate extended periods of high traffic.</t>
+    </r>
+  </si>
+  <si>
+    <t>A flow in a component or system that can cause the component or system to fail to perform its required function may result in.</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
+  </si>
+  <si>
+    <t>Deviation of the component or system from its expected delivery, service or result.</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>A malfunction in the software/system is an error that may cause components or the system to fail to perform its required functions. </t>
+  </si>
+  <si>
+    <t>Difference between Priority and Severity</t>
+  </si>
+  <si>
+    <t>The sequence in which the developer should resolve defects is specified by Defect Priority.</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>The defect severity of a fault is defined as the influence it has on the product's operation.</t>
+  </si>
+  <si>
+    <t>What is Bug Life Cycle?</t>
+  </si>
+  <si>
+    <t>Bug Life cycle is the journey of a defect cycle, which a defect goes through during its lifetime. It varies from organization to organization and also from project to project as it is 
+governed by the software testing process and also depends upon the tools used.</t>
+  </si>
+  <si>
+    <t>Explain the difference between Functional testing and NonFunctional testing</t>
+  </si>
+  <si>
+    <t>FUNCTIONAL TESTING</t>
+  </si>
+  <si>
+    <t>1) Functional testing is performed using the functional specification provided by the client and verifies the system against the funcational requirements</t>
+  </si>
+  <si>
+    <t>2) functional testing describes what the product does</t>
+  </si>
+  <si>
+    <t>3) easy to do manual testing</t>
+  </si>
+  <si>
+    <t>NON-FUNCTIONAL TESTING</t>
+  </si>
+  <si>
+    <t>1) Non-functional testing checks the performance, realibility, scalability and other non-functional aspects of the software syatem</t>
+  </si>
+  <si>
+    <t>2) Non-functional testing describe how good the product works</t>
+  </si>
+  <si>
+    <t>3) though to do manual testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +1398,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF273239"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1007,7 +1496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,6 +1532,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2449,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525DD34-5544-41A5-AEDD-E1A6772874DD}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2485,9 +2999,721 @@
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>24</v>
+      </c>
+      <c r="B100" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B110" s="27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B112" s="27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B114" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B116" s="26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>27</v>
+      </c>
+      <c r="B131" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>29</v>
+      </c>
+      <c r="B141" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2759,7 +3985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6725247D-3E65-4B81-B83D-6B30FAE07A8C}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2954,7 +4180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0FEA5E-41FA-4CB1-8876-9EAEDBD0306C}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -3770,7 +4996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F0669D-5D6D-4B6B-8AD0-5B5CC51B99DC}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
